--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Psen1-Notch1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Psen1-Notch1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>24.916566</v>
+        <v>9.409481333333334</v>
       </c>
       <c r="H2">
-        <v>74.74969800000001</v>
+        <v>28.228444</v>
       </c>
       <c r="I2">
-        <v>0.4599128892550761</v>
+        <v>0.2433300530093958</v>
       </c>
       <c r="J2">
-        <v>0.459912889255076</v>
+        <v>0.2433300530093958</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>45.95651366666667</v>
+        <v>48.42420966666666</v>
       </c>
       <c r="N2">
-        <v>137.869541</v>
+        <v>145.272629</v>
       </c>
       <c r="O2">
-        <v>0.6189188856627117</v>
+        <v>0.6311762527593259</v>
       </c>
       <c r="P2">
-        <v>0.6189188856627117</v>
+        <v>0.6311762527593258</v>
       </c>
       <c r="Q2">
-        <v>1145.078505905402</v>
+        <v>455.6466969399195</v>
       </c>
       <c r="R2">
-        <v>10305.70655314862</v>
+        <v>4100.820272459277</v>
       </c>
       <c r="S2">
-        <v>0.2846487729196698</v>
+        <v>0.1535841510421986</v>
       </c>
       <c r="T2">
-        <v>0.2846487729196698</v>
+        <v>0.1535841510421986</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>24.916566</v>
+        <v>9.409481333333334</v>
       </c>
       <c r="H3">
-        <v>74.74969800000001</v>
+        <v>28.228444</v>
       </c>
       <c r="I3">
-        <v>0.4599128892550761</v>
+        <v>0.2433300530093958</v>
       </c>
       <c r="J3">
-        <v>0.459912889255076</v>
+        <v>0.2433300530093958</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>6.849914666666666</v>
+        <v>6.849914666666667</v>
       </c>
       <c r="N3">
         <v>20.549744</v>
       </c>
       <c r="O3">
-        <v>0.0922511568899326</v>
+        <v>0.08928392431779728</v>
       </c>
       <c r="P3">
-        <v>0.09225115688993259</v>
+        <v>0.08928392431779726</v>
       </c>
       <c r="Q3">
-        <v>170.676350886368</v>
+        <v>64.45414419092623</v>
       </c>
       <c r="R3">
-        <v>1536.087157977312</v>
+        <v>580.0872977183361</v>
       </c>
       <c r="S3">
-        <v>0.04242749610237222</v>
+        <v>0.02172546203713649</v>
       </c>
       <c r="T3">
-        <v>0.04242749610237221</v>
+        <v>0.02172546203713649</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>24.916566</v>
+        <v>9.409481333333334</v>
       </c>
       <c r="H4">
-        <v>74.74969800000001</v>
+        <v>28.228444</v>
       </c>
       <c r="I4">
-        <v>0.4599128892550761</v>
+        <v>0.2433300530093958</v>
       </c>
       <c r="J4">
-        <v>0.459912889255076</v>
+        <v>0.2433300530093958</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,25 +679,25 @@
         <v>21.446458</v>
       </c>
       <c r="N4">
-        <v>64.33937400000001</v>
+        <v>64.33937399999999</v>
       </c>
       <c r="O4">
-        <v>0.2888299574473556</v>
+        <v>0.2795398229228769</v>
       </c>
       <c r="P4">
-        <v>0.2888299574473556</v>
+        <v>0.2795398229228769</v>
       </c>
       <c r="Q4">
-        <v>534.3720862232282</v>
+        <v>201.8000462171173</v>
       </c>
       <c r="R4">
-        <v>4809.348776009053</v>
+        <v>1816.200415954056</v>
       </c>
       <c r="S4">
-        <v>0.132836620233034</v>
+        <v>0.06802043993006075</v>
       </c>
       <c r="T4">
-        <v>0.132836620233034</v>
+        <v>0.06802043993006075</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>58.80901</v>
       </c>
       <c r="I5">
-        <v>0.3618345281251927</v>
+        <v>0.5069354697952918</v>
       </c>
       <c r="J5">
-        <v>0.3618345281251926</v>
+        <v>0.5069354697952919</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>45.95651366666667</v>
+        <v>48.42420966666666</v>
       </c>
       <c r="N5">
-        <v>137.869541</v>
+        <v>145.272629</v>
       </c>
       <c r="O5">
-        <v>0.6189188856627117</v>
+        <v>0.6311762527593259</v>
       </c>
       <c r="P5">
-        <v>0.6189188856627117</v>
+        <v>0.6311762527593258</v>
       </c>
       <c r="Q5">
-        <v>900.8856905960456</v>
+        <v>949.2599435096988</v>
       </c>
       <c r="R5">
-        <v>8107.97121536441</v>
+        <v>8543.33949158729</v>
       </c>
       <c r="S5">
-        <v>0.2239462229415374</v>
+        <v>0.3199656302161807</v>
       </c>
       <c r="T5">
-        <v>0.2239462229415373</v>
+        <v>0.3199656302161807</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>58.80901</v>
       </c>
       <c r="I6">
-        <v>0.3618345281251927</v>
+        <v>0.5069354697952918</v>
       </c>
       <c r="J6">
-        <v>0.3618345281251926</v>
+        <v>0.5069354697952919</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,28 +800,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.849914666666666</v>
+        <v>6.849914666666667</v>
       </c>
       <c r="N6">
         <v>20.549744</v>
       </c>
       <c r="O6">
-        <v>0.0922511568899326</v>
+        <v>0.08928392431779728</v>
       </c>
       <c r="P6">
-        <v>0.09225115688993259</v>
+        <v>0.08928392431779726</v>
       </c>
       <c r="Q6">
-        <v>134.2789000437155</v>
+        <v>134.2789000437156</v>
       </c>
       <c r="R6">
         <v>1208.51010039344</v>
       </c>
       <c r="S6">
-        <v>0.03337965382227188</v>
+        <v>0.04526118811920984</v>
       </c>
       <c r="T6">
-        <v>0.03337965382227187</v>
+        <v>0.04526118811920984</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>58.80901</v>
       </c>
       <c r="I7">
-        <v>0.3618345281251927</v>
+        <v>0.5069354697952918</v>
       </c>
       <c r="J7">
-        <v>0.3618345281251926</v>
+        <v>0.5069354697952919</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,25 +865,25 @@
         <v>21.446458</v>
       </c>
       <c r="N7">
-        <v>64.33937400000001</v>
+        <v>64.33937399999999</v>
       </c>
       <c r="O7">
-        <v>0.2888299574473556</v>
+        <v>0.2795398229228769</v>
       </c>
       <c r="P7">
-        <v>0.2888299574473556</v>
+        <v>0.2795398229228769</v>
       </c>
       <c r="Q7">
-        <v>420.4149876621934</v>
+        <v>420.4149876621933</v>
       </c>
       <c r="R7">
-        <v>3783.734888959741</v>
+        <v>3783.73488895974</v>
       </c>
       <c r="S7">
-        <v>0.1045086513613834</v>
+        <v>0.1417086514599013</v>
       </c>
       <c r="T7">
-        <v>0.1045086513613834</v>
+        <v>0.1417086514599013</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>9.657138000000002</v>
+        <v>9.657138</v>
       </c>
       <c r="H8">
         <v>28.971414</v>
       </c>
       <c r="I8">
-        <v>0.1782525826197313</v>
+        <v>0.2497344771953123</v>
       </c>
       <c r="J8">
-        <v>0.1782525826197312</v>
+        <v>0.2497344771953124</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>45.95651366666667</v>
+        <v>48.42420966666666</v>
       </c>
       <c r="N8">
-        <v>137.869541</v>
+        <v>145.272629</v>
       </c>
       <c r="O8">
-        <v>0.6189188856627117</v>
+        <v>0.6311762527593259</v>
       </c>
       <c r="P8">
-        <v>0.6189188856627117</v>
+        <v>0.6311762527593258</v>
       </c>
       <c r="Q8">
-        <v>443.8083944778861</v>
+        <v>467.6392752919339</v>
       </c>
       <c r="R8">
-        <v>3994.275550300974</v>
+        <v>4208.753477627406</v>
       </c>
       <c r="S8">
-        <v>0.1103238898015045</v>
+        <v>0.1576264715009466</v>
       </c>
       <c r="T8">
-        <v>0.1103238898015045</v>
+        <v>0.1576264715009466</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>9.657138000000002</v>
+        <v>9.657138</v>
       </c>
       <c r="H9">
         <v>28.971414</v>
       </c>
       <c r="I9">
-        <v>0.1782525826197313</v>
+        <v>0.2497344771953123</v>
       </c>
       <c r="J9">
-        <v>0.1782525826197312</v>
+        <v>0.2497344771953124</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -986,28 +986,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>6.849914666666666</v>
+        <v>6.849914666666667</v>
       </c>
       <c r="N9">
         <v>20.549744</v>
       </c>
       <c r="O9">
-        <v>0.0922511568899326</v>
+        <v>0.08928392431779728</v>
       </c>
       <c r="P9">
-        <v>0.09225115688993259</v>
+        <v>0.08928392431779726</v>
       </c>
       <c r="Q9">
-        <v>66.15057122422401</v>
+        <v>66.150571224224</v>
       </c>
       <c r="R9">
         <v>595.355141018016</v>
       </c>
       <c r="S9">
-        <v>0.0164440069652885</v>
+        <v>0.02229727416145093</v>
       </c>
       <c r="T9">
-        <v>0.0164440069652885</v>
+        <v>0.02229727416145093</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>9.657138000000002</v>
+        <v>9.657138</v>
       </c>
       <c r="H10">
         <v>28.971414</v>
       </c>
       <c r="I10">
-        <v>0.1782525826197313</v>
+        <v>0.2497344771953123</v>
       </c>
       <c r="J10">
-        <v>0.1782525826197312</v>
+        <v>0.2497344771953124</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,25 +1051,25 @@
         <v>21.446458</v>
       </c>
       <c r="N10">
-        <v>64.33937400000001</v>
+        <v>64.33937399999999</v>
       </c>
       <c r="O10">
-        <v>0.2888299574473556</v>
+        <v>0.2795398229228769</v>
       </c>
       <c r="P10">
-        <v>0.2888299574473556</v>
+        <v>0.2795398229228769</v>
       </c>
       <c r="Q10">
-        <v>207.1114045172041</v>
+        <v>207.111404517204</v>
       </c>
       <c r="R10">
         <v>1864.002640654836</v>
       </c>
       <c r="S10">
-        <v>0.05148468585293822</v>
+        <v>0.06981073153291484</v>
       </c>
       <c r="T10">
-        <v>0.05148468585293822</v>
+        <v>0.06981073153291485</v>
       </c>
     </row>
   </sheetData>
